--- a/CoreRulebook/Data/Archetypes/Fighter.xlsx
+++ b/CoreRulebook/Data/Archetypes/Fighter.xlsx
@@ -31,10 +31,10 @@
     <t xml:space="preserve">Fighter</t>
   </si>
   <si>
-    <t xml:space="preserve">Melee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Archer</t>
+    <t xml:space="preserve">Spellsword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sharpshooter</t>
   </si>
   <si>
     <t xml:space="preserve">Stuff0</t>
@@ -146,8 +146,8 @@
   </sheetPr>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
